--- a/Main Assesment/Data/bb2.xlsx
+++ b/Main Assesment/Data/bb2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\as3122\Desktop\Isaac Newtron BB Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonporteus/Documents/GitHub/ssb_s5/Main Assesment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4114D73-81E2-4BD5-AF80-60315CDFA171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA126944-6D8C-6C4E-BE70-DA8E520676D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B16C5CEB-7255-43D5-99C3-6267D1D0CB2F}"/>
+    <workbookView xWindow="7100" yWindow="4520" windowWidth="19440" windowHeight="15000" xr2:uid="{B16C5CEB-7255-43D5-99C3-6267D1D0CB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="End point" sheetId="1" r:id="rId1"/>
@@ -247,9 +247,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,410 +618,424 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FE88A0-DACB-46AA-A30F-511C90D8B5A8}">
   <dimension ref="A3:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>7</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>8</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>9</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>10</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>11</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>12</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>83348.125</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>44932.125</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>20075.125</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>9074.125</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>4447.125</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>4100.125</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>2824.125</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>1598.125</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>846.125</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>563.125</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>519.125</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="M15" s="4"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>82840.125</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>43329.125</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>16772.125</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>7587.125</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>3989.125</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>2643.125</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>1733.125</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>1180.125</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>882.125</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>658.125</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>613.125</v>
       </c>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>83438.125</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>41028.125</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>18616.125</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>7935.125</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>4585.125</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>2718.125</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>1923.125</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>1480.125</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>931.125</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>876.125</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>710.125</v>
       </c>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>83040.125</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>43719.125</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>19700.125</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>8977.125</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>4545.125</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>2290.125</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>1899.125</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>1527.125</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>1238.125</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>795.125</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>697.125</v>
       </c>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>83176.125</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>38685.125</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>18646.125</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>12758.125</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>8886.125</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>2348.125</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>1725.125</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>1191.125</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>1029.125</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>1380.125</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>604.125</v>
       </c>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>81944.125</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>45685.125</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>16904.125</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>7979.125</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>5220.125</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>2800.125</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>2189.125</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>1660.125</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>1260.125</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>1092.125</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>827.125</v>
       </c>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>81849.125</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>44206.125</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>18183.125</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>9100.125</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>3569.125</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>2990.125</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>1653.125</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>1569.125</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>1182.125</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>926.125</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>717.125</v>
       </c>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>81392.125</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>41263.125</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>18822.125</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>12971.125</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>4220.125</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>2948.125</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>1796.125</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>1384.125</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>1094.125</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>961.125</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>653.125</v>
       </c>
-      <c r="M22" s="11"/>
+      <c r="M22" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B15:L22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>